--- a/app/data/quizzes/Stats.xlsx
+++ b/app/data/quizzes/Stats.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7620"/>
+    <workbookView windowWidth="20490" windowHeight="7620" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="3.1_Arithmetic_Mean" sheetId="1" r:id="rId1"/>
-    <sheet name="3.2_Variance_and_StdDev" sheetId="2" r:id="rId2"/>
-    <sheet name="3.3_Manual_Computation" sheetId="3" r:id="rId3"/>
-    <sheet name="3.4_Mean_Variance_in_AI" sheetId="4" r:id="rId4"/>
+    <sheet name="3.1" sheetId="1" r:id="rId1"/>
+    <sheet name="3.2" sheetId="2" r:id="rId2"/>
+    <sheet name="3.3" sheetId="3" r:id="rId3"/>
+    <sheet name="3.4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1351,7 +1351,7 @@
   <sheetPr/>
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -2868,8 +2868,8 @@
   <sheetPr/>
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
